--- a/Chapter 14 Master.xlsx
+++ b/Chapter 14 Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vafa.saboorideilami/Documents/5504/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB68542-0C2B-244C-B827-300CDAE7AA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8309B3CA-9180-044D-BCE9-0814194C9CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Least Squares Method" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="Scatter Diagram" sheetId="3" r:id="rId3"/>
     <sheet name="Excel regression" sheetId="4" r:id="rId4"/>
     <sheet name="Residual Plot" sheetId="5" r:id="rId5"/>
+    <sheet name="Outliers" sheetId="6" r:id="rId6"/>
+    <sheet name="Influential (Leverage)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="PageEnd_663" localSheetId="5">Outliers!$F$5</definedName>
     <definedName name="Population">#REF!</definedName>
     <definedName name="Sales">#REF!</definedName>
     <definedName name="x">#REF!</definedName>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>Restaurant</t>
   </si>
@@ -179,12 +182,21 @@
   <si>
     <t>Percentile</t>
   </si>
+  <si>
+    <t>Predicted y</t>
+  </si>
+  <si>
+    <t>Outlier</t>
+  </si>
+  <si>
+    <t>High leverage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -223,8 +235,39 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +280,14 @@
         <bgColor rgb="FFFBD4B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -302,11 +351,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +402,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1921,6 +2016,1835 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Influential (Leverage)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Influential (Leverage)'!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Influential (Leverage)'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E2E-CA4D-8E7D-99C8CAE66634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1171626127"/>
+        <c:axId val="1172015391"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1171626127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172015391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1172015391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171626127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Influential (Leverage)'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Influential (Leverage)'!$A$14:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Influential (Leverage)'!$B$14:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9919-8A44-B6C8-C81A6CE28FD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1167046751"/>
+        <c:axId val="1167048399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1167046751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167048399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1167048399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167046751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -2067,11 +3991,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>333374</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="12153900" cy="5765800"/>
+    <xdr:ext cx="18917151" cy="33774648"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3">
@@ -2085,8 +4009,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="114300"/>
-          <a:ext cx="12153900" cy="5765800"/>
+          <a:off x="333374" y="114299"/>
+          <a:ext cx="18917151" cy="33774648"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,9 +4053,8 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>rm(list = ls()) </a:t>
+            <a:t># Clear the environment</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2153,9 +4076,28 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>setwd("~/Downloads")</a:t>
+            <a:t>rm(list = ls())</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2177,9 +4119,8 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>armands_df &lt;- read.csv("armands.csv")</a:t>
+            <a:t># Read Excel file in R</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2201,9 +4142,8 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>summary(armands_df)</a:t>
+            <a:t>library(readxl)</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2225,9 +4165,8 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>Sales &lt;- armands_df$Sales</a:t>
+            <a:t>armands &lt;- read_excel("armands.xlsx")</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2249,9 +4188,28 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>Population &lt;- armands_df$Population</a:t>
+            <a:t>summary(armands)</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2273,9 +4231,8 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>cor(Population, Sales)</a:t>
+            <a:t># Examine Correlation between variables (Multiple R in Excel)</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2297,9 +4254,407 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>armands_slr &lt;- lm(Sales ~ Population, data = armands_df)</a:t>
+            <a:t>cor(armands$Population, armands$Sales)</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Simple linear regression</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands_slr &lt;- lm(Sales ~ Population, data = armands)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands_slr$coefficients # coefficients</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Plotting data and regression line</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>library(tidyverse)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands %&gt;% ggplot(aes(x = Population, y = Sales)) + # coordinate system</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_point() + # scatter plot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_smooth(method = 'lm', se = TRUE) # abline with conf. interval (gray)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># R Squared Value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>summary(armands_slr)$r.squared</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Adjusted R Squared Value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>summary(armands_slr)$adj.r.squared</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Complete regression analysis</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2323,36 +4678,26 @@
             </a:rPr>
             <a:t>summary(armands_slr)</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
-            <a:buSzPts val="2400"/>
-            <a:buFont typeface="Consolas"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas"/>
-              <a:ea typeface="Consolas"/>
-              <a:cs typeface="Consolas"/>
-              <a:sym typeface="Consolas"/>
-            </a:rPr>
-            <a:t>plot(Population, Sales)</a:t>
-          </a:r>
-          <a:endParaRPr sz="1400"/>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2374,9 +4719,8 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>abline(armands_slr, col="red")</a:t>
+            <a:t># Confidence and Prediction Interval</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2398,9 +4742,8 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>hatvalues(armands_slr)</a:t>
+            <a:t>predict (armands_slr, data.frame(Population = 10), interval = "confidence", conf.level = 0.95)</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
@@ -2422,9 +4765,1240 @@
               <a:cs typeface="Consolas"/>
               <a:sym typeface="Consolas"/>
             </a:rPr>
-            <a:t>plot(armands_slr)</a:t>
+            <a:t>predict (armands_slr, data.frame(Population = 10), interval = "prediction", conf.level = 0.95)</a:t>
           </a:r>
-          <a:endParaRPr sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Residual analysis (method 1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands$predicted &lt;- fitted(armands_slr)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands$residuals &lt;- residuals(armands_slr)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands$std_residuals &lt;- rstandard(armands_slr)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Residual plot against x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands %&gt;% ggplot(aes(x = Population, y = residuals)) + </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_point() +</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_smooth(method = 'lm', se = FALSE) + # we observe no pattern</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_smooth() # we observe no pattern</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Residual plot against y-hat</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands %&gt;% ggplot(aes(x = predicted, y = residuals)) + </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_point() +</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_smooth(method = 'lm', se = FALSE) + # we observe no pattern</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_smooth() # we observe no pattern</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Standard residual plot against x</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands %&gt;% ggplot(aes(x = Population, y =std_residuals)) + </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_point() +</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_smooth(method = 'lm', se = FALSE) + # we observe no pattern</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_smooth() # we observe no pattern</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># QQ Plot (method 1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>qplot(sample = armands$std_residuals)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># QQ Plot (method 2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands %&gt;% ggplot(aes(sample = std_residuals)) +</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_qq() + </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_qq_line()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Calculating Leverage (Hat Values)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands$hat &lt;- hatvalues(armands_slr) #none greater than 6/10=0.6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>qplot (armands$Population, armands$hat) +</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>  geom_hline(yintercept=0.6, linetype="dashed", color = "red")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Residual analysis (method 2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>plot(armands_slr, which = 1) # produces 5 plots</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># 1 = residuals versus fitted</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># 2 = QQ plot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># 3 = Scale-Location</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># 4 = Cook's Distance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># 5 = Williams-like Graph</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>plot(armands_slr, which = 4) #none greater than 4/10=0.4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>armands$cook &lt;- cooks.distance(armands_slr)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Cook's distance is a combination of leverage and residual values</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># The higher the leverage and residuals, the higher the Cook’s distance.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># Investigate any point over 0.5, values over 1.0 are influential</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t>plot(armands_slr, which = 5) #none greater than 4/10=0.4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas"/>
+              <a:ea typeface="Consolas"/>
+              <a:cs typeface="Consolas"/>
+              <a:sym typeface="Consolas"/>
+            </a:rPr>
+            <a:t># in this plot (leverage ~ std) we are looking for values lying outside dashed line</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Consolas"/>
+            <a:ea typeface="Consolas"/>
+            <a:cs typeface="Consolas"/>
+            <a:sym typeface="Consolas"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3538,6 +7112,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52293</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>586441</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157629</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F31A5B-34C1-903F-EBF4-1587CE41924E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>29881</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>668617</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53041</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAF24DF-2793-79CD-89B8-E24F11AE4B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -5138,7 +8789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="AD28" sqref="AD28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8624,7 +12277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -10246,4 +13899,620 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9666F96-2ED2-434D-8380-D81C75E0D551}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>55</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>50</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.70486707747323485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21">
+        <v>75</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.49683759690565932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14">
+        <v>40</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.43394229651886673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14">
+        <v>45</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="16">
+        <v>12.670448067739676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14">
+        <v>30</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>6</v>
+      </c>
+      <c r="B11" s="14">
+        <v>15</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1268.1779661016953</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1268.1779661016953</v>
+      </c>
+      <c r="H12" s="16">
+        <v>7.899439129000335</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2.2822160900631376E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="16">
+        <v>8</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1284.3220338983047</v>
+      </c>
+      <c r="G13" s="16">
+        <v>160.54025423728808</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="17">
+        <v>9</v>
+      </c>
+      <c r="F14" s="17">
+        <v>2552.5</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="16">
+        <v>64.957627118644069</v>
+      </c>
+      <c r="F17" s="16">
+        <v>9.2580867156860389</v>
+      </c>
+      <c r="G17" s="16">
+        <v>7.0163122374503066</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1.1082103524712686E-4</v>
+      </c>
+      <c r="I17" s="16">
+        <v>43.608440868193298</v>
+      </c>
+      <c r="J17" s="16">
+        <v>86.30681336909484</v>
+      </c>
+      <c r="K17" s="16">
+        <v>43.608440868193298</v>
+      </c>
+      <c r="L17" s="16">
+        <v>86.30681336909484</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="17">
+        <v>-7.3305084745762725</v>
+      </c>
+      <c r="F18" s="17">
+        <v>2.6081704594692043</v>
+      </c>
+      <c r="G18" s="17">
+        <v>-2.810594088266809</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2.2822160900631352E-2</v>
+      </c>
+      <c r="I18" s="17">
+        <v>-13.34496033942961</v>
+      </c>
+      <c r="J18" s="17">
+        <v>-1.3160566097229349</v>
+      </c>
+      <c r="K18" s="17">
+        <v>-13.34496033942961</v>
+      </c>
+      <c r="L18" s="17">
+        <v>-1.3160566097229349</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D22" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D24" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16">
+        <v>57.627118644067799</v>
+      </c>
+      <c r="F25" s="16">
+        <v>-12.627118644067799</v>
+      </c>
+      <c r="G25" s="16">
+        <v>-1.0570330077119656</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D26" s="16">
+        <v>2</v>
+      </c>
+      <c r="E26" s="16">
+        <v>57.627118644067799</v>
+      </c>
+      <c r="F26" s="16">
+        <v>-2.6271186440677994</v>
+      </c>
+      <c r="G26" s="16">
+        <v>-0.21991961905416754</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D27" s="16">
+        <v>3</v>
+      </c>
+      <c r="E27" s="16">
+        <v>50.296610169491522</v>
+      </c>
+      <c r="F27" s="16">
+        <v>-0.29661016949152241</v>
+      </c>
+      <c r="G27" s="16">
+        <v>-2.4829634409341217E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D28" s="20">
+        <v>4</v>
+      </c>
+      <c r="E28" s="20">
+        <v>42.966101694915253</v>
+      </c>
+      <c r="F28" s="20">
+        <v>32.033898305084747</v>
+      </c>
+      <c r="G28" s="20">
+        <v>2.6816005162088787</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="16">
+        <v>5</v>
+      </c>
+      <c r="E29" s="16">
+        <v>42.966101694915253</v>
+      </c>
+      <c r="F29" s="16">
+        <v>-2.9661016949152526</v>
+      </c>
+      <c r="G29" s="16">
+        <v>-0.24829634409341456</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D30" s="16">
+        <v>6</v>
+      </c>
+      <c r="E30" s="16">
+        <v>42.966101694915253</v>
+      </c>
+      <c r="F30" s="16">
+        <v>2.0338983050847474</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0.1702603502354845</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D31" s="16">
+        <v>7</v>
+      </c>
+      <c r="E31" s="16">
+        <v>35.635593220338976</v>
+      </c>
+      <c r="F31" s="16">
+        <v>-5.6355932203389756</v>
+      </c>
+      <c r="G31" s="16">
+        <v>-0.47176305377748728</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D32" s="16">
+        <v>8</v>
+      </c>
+      <c r="E32" s="16">
+        <v>35.635593220338976</v>
+      </c>
+      <c r="F32" s="16">
+        <v>-0.63559322033897558</v>
+      </c>
+      <c r="G32" s="16">
+        <v>-5.3206359448588238E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="16">
+        <v>9</v>
+      </c>
+      <c r="E33" s="16">
+        <v>28.305084745762706</v>
+      </c>
+      <c r="F33" s="16">
+        <v>-3.3050847457627057</v>
+      </c>
+      <c r="G33" s="16">
+        <v>-0.2766730691326616</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="17">
+        <v>10</v>
+      </c>
+      <c r="E34" s="17">
+        <v>20.974576271186436</v>
+      </c>
+      <c r="F34" s="17">
+        <v>-5.9745762711864359</v>
+      </c>
+      <c r="G34" s="17">
+        <v>-0.50013977881673488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8165CF-2419-9641-89D7-B960275259F2}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView zoomScale="156" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>10</v>
+      </c>
+      <c r="B3" s="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>20</v>
+      </c>
+      <c r="B5" s="14">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>25</v>
+      </c>
+      <c r="B7" s="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>70</v>
+      </c>
+      <c r="B8" s="25">
+        <v>100</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>20</v>
+      </c>
+      <c r="B17" s="14">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>20</v>
+      </c>
+      <c r="B18" s="14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>25</v>
+      </c>
+      <c r="B19" s="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>